--- a/data_xlsx/frenchDFDev.xlsx
+++ b/data_xlsx/frenchDFDev.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12071cbfdffdbbd1/GitHub/PR-AAAI22-SDU-ST1-AE/data_xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C0AAFFC228F92EE8C0170BD87B9BEC1950226A7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -13420,8 +13426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13484,6 +13490,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -13530,7 +13544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13562,9 +13576,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13596,6 +13628,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13771,14 +13821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13798,7 +13850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13818,7 +13870,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13838,7 +13890,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13858,7 +13910,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13878,7 +13930,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13898,7 +13950,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13918,7 +13970,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13938,7 +13990,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13958,7 +14010,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13978,7 +14030,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13998,7 +14050,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14018,7 +14070,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14038,7 +14090,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14058,7 +14110,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14078,7 +14130,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14098,7 +14150,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14118,7 +14170,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14138,7 +14190,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14158,7 +14210,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14178,7 +14230,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14198,7 +14250,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14218,7 +14270,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14238,7 +14290,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14258,7 +14310,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14278,7 +14330,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14298,7 +14350,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14318,7 +14370,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14338,7 +14390,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14358,7 +14410,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14378,7 +14430,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14398,7 +14450,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14418,7 +14470,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14438,7 +14490,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14458,7 +14510,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14478,7 +14530,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14498,7 +14550,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14518,7 +14570,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14538,7 +14590,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14558,7 +14610,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14578,7 +14630,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14598,7 +14650,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14618,7 +14670,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14638,7 +14690,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14658,7 +14710,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14678,7 +14730,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14698,7 +14750,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14718,7 +14770,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -14738,7 +14790,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -14758,7 +14810,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -14778,7 +14830,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14798,7 +14850,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14818,7 +14870,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14838,7 +14890,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14858,7 +14910,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14878,7 +14930,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14898,7 +14950,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14918,7 +14970,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14938,7 +14990,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -14958,7 +15010,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14978,7 +15030,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14998,7 +15050,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15018,7 +15070,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15038,7 +15090,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -15058,7 +15110,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -15078,7 +15130,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15098,7 +15150,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15118,7 +15170,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -15138,7 +15190,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -15158,7 +15210,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -15178,7 +15230,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -15198,7 +15250,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15218,7 +15270,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -15238,7 +15290,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -15258,7 +15310,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15278,7 +15330,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15298,7 +15350,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15318,7 +15370,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15338,7 +15390,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15358,7 +15410,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15378,7 +15430,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15398,7 +15450,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15418,7 +15470,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15438,7 +15490,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15458,7 +15510,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15478,7 +15530,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15498,7 +15550,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15518,7 +15570,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15538,7 +15590,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15558,7 +15610,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15578,7 +15630,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15598,7 +15650,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15618,7 +15670,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15638,7 +15690,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15658,7 +15710,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15678,7 +15730,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15698,7 +15750,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15718,7 +15770,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15738,7 +15790,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15758,7 +15810,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15778,7 +15830,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15798,7 +15850,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15818,7 +15870,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15838,7 +15890,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15858,7 +15910,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15878,7 +15930,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15898,7 +15950,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15918,7 +15970,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15938,7 +15990,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15958,7 +16010,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15978,7 +16030,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15998,7 +16050,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16018,7 +16070,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16038,7 +16090,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16058,7 +16110,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16078,7 +16130,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16098,7 +16150,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16118,7 +16170,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16138,7 +16190,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16158,7 +16210,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16178,7 +16230,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16198,7 +16250,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16218,7 +16270,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16238,7 +16290,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16258,7 +16310,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16278,7 +16330,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16298,7 +16350,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16318,7 +16370,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16338,7 +16390,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16358,7 +16410,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16378,7 +16430,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16398,7 +16450,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16418,7 +16470,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16438,7 +16490,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16458,7 +16510,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16478,7 +16530,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16498,7 +16550,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16518,7 +16570,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16538,7 +16590,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16558,7 +16610,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16578,7 +16630,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16598,7 +16650,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16618,7 +16670,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16638,7 +16690,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16658,7 +16710,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16678,7 +16730,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16698,7 +16750,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16718,7 +16770,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16738,7 +16790,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16758,7 +16810,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16778,7 +16830,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16798,7 +16850,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16818,7 +16870,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16838,7 +16890,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16858,7 +16910,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16878,7 +16930,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16898,7 +16950,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16918,7 +16970,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16938,7 +16990,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16958,7 +17010,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16978,7 +17030,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16998,7 +17050,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17018,7 +17070,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17038,7 +17090,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17058,7 +17110,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17078,7 +17130,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -17098,7 +17150,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -17118,7 +17170,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -17138,7 +17190,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17158,7 +17210,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17178,7 +17230,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17198,7 +17250,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17218,7 +17270,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17238,7 +17290,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17258,7 +17310,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17278,7 +17330,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17298,7 +17350,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17318,7 +17370,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17338,7 +17390,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17358,7 +17410,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17378,7 +17430,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17398,7 +17450,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -17418,7 +17470,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -17438,7 +17490,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -17458,7 +17510,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -17478,7 +17530,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17498,7 +17550,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17518,7 +17570,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17538,7 +17590,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17558,7 +17610,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17578,7 +17630,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17598,7 +17650,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17618,7 +17670,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17638,7 +17690,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -17658,7 +17710,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17678,7 +17730,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17698,7 +17750,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17718,7 +17770,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17738,7 +17790,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -17758,7 +17810,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17778,7 +17830,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17798,7 +17850,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17818,7 +17870,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17838,7 +17890,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17858,7 +17910,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17878,7 +17930,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17898,7 +17950,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17918,7 +17970,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17938,7 +17990,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17958,7 +18010,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17978,7 +18030,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17998,7 +18050,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18018,7 +18070,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18038,7 +18090,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18058,7 +18110,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18078,7 +18130,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18098,7 +18150,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18118,7 +18170,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18138,7 +18190,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18158,7 +18210,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18178,7 +18230,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18198,7 +18250,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -18218,7 +18270,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -18238,7 +18290,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -18258,7 +18310,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -18278,7 +18330,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -18298,7 +18350,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -18318,7 +18370,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -18338,7 +18390,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -18358,7 +18410,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -18378,7 +18430,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -18398,7 +18450,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -18418,7 +18470,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -18438,7 +18490,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -18458,7 +18510,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18478,7 +18530,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18498,7 +18550,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18518,7 +18570,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18538,7 +18590,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18558,7 +18610,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18578,7 +18630,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18598,7 +18650,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18618,7 +18670,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18638,7 +18690,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18658,7 +18710,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18678,7 +18730,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18698,7 +18750,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18718,7 +18770,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18738,7 +18790,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18758,7 +18810,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18778,7 +18830,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18798,7 +18850,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18818,7 +18870,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18838,7 +18890,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18858,7 +18910,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18878,7 +18930,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18898,7 +18950,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18918,7 +18970,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18938,7 +18990,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18958,7 +19010,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18978,7 +19030,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -18998,7 +19050,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -19018,7 +19070,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -19038,7 +19090,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19058,7 +19110,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19078,7 +19130,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19098,7 +19150,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19118,7 +19170,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19138,7 +19190,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19158,7 +19210,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19178,7 +19230,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19198,7 +19250,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19218,7 +19270,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19238,7 +19290,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19258,7 +19310,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19278,7 +19330,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19298,7 +19350,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19318,7 +19370,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19338,7 +19390,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19358,7 +19410,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19378,7 +19430,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19398,7 +19450,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19418,7 +19470,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -19438,7 +19490,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19458,7 +19510,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -19478,7 +19530,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -19498,7 +19550,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -19518,7 +19570,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -19538,7 +19590,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -19558,7 +19610,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -19578,7 +19630,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -19598,7 +19650,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19618,7 +19670,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -19638,7 +19690,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -19658,7 +19710,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -19678,7 +19730,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -19698,7 +19750,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -19718,7 +19770,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -19738,7 +19790,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -19758,7 +19810,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -19778,7 +19830,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -19798,7 +19850,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -19818,7 +19870,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -19838,7 +19890,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -19858,7 +19910,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -19878,7 +19930,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -19898,7 +19950,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -19918,7 +19970,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -19938,7 +19990,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -19958,7 +20010,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -19978,7 +20030,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -19998,7 +20050,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -20018,7 +20070,7 @@
         <v>3989</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -20038,7 +20090,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -20058,7 +20110,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -20078,7 +20130,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -20098,7 +20150,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -20118,7 +20170,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -20138,7 +20190,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -20158,7 +20210,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -20178,7 +20230,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -20198,7 +20250,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -20218,7 +20270,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -20238,7 +20290,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -20258,7 +20310,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
@@ -20278,7 +20330,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -20298,7 +20350,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -20318,7 +20370,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -20338,7 +20390,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -20358,7 +20410,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -20378,7 +20430,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -20398,7 +20450,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -20418,7 +20470,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -20438,7 +20490,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -20458,7 +20510,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -20478,7 +20530,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -20498,7 +20550,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
@@ -20518,7 +20570,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
@@ -20538,7 +20590,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
@@ -20558,7 +20610,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
@@ -20578,7 +20630,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
@@ -20598,7 +20650,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
@@ -20618,7 +20670,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
@@ -20638,7 +20690,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
@@ -20658,7 +20710,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -20678,7 +20730,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
@@ -20698,7 +20750,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
@@ -20718,7 +20770,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
@@ -20738,7 +20790,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
@@ -20758,7 +20810,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
@@ -20778,7 +20830,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
@@ -20798,7 +20850,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
@@ -20818,7 +20870,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
@@ -20838,7 +20890,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
@@ -20858,7 +20910,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
@@ -20878,7 +20930,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
@@ -20898,7 +20950,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
@@ -20918,7 +20970,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
@@ -20938,7 +20990,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
@@ -20958,7 +21010,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
@@ -20978,7 +21030,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
@@ -20998,7 +21050,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
@@ -21018,7 +21070,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
@@ -21038,7 +21090,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
@@ -21058,7 +21110,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
@@ -21078,7 +21130,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
@@ -21098,7 +21150,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
@@ -21118,7 +21170,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
@@ -21138,7 +21190,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
@@ -21158,7 +21210,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
@@ -21178,7 +21230,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
@@ -21198,7 +21250,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
@@ -21218,7 +21270,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
@@ -21238,7 +21290,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
@@ -21258,7 +21310,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
@@ -21278,7 +21330,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
@@ -21298,7 +21350,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
@@ -21318,7 +21370,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
@@ -21338,7 +21390,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
@@ -21358,7 +21410,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
@@ -21378,7 +21430,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
@@ -21398,7 +21450,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
@@ -21418,7 +21470,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
@@ -21438,7 +21490,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
@@ -21458,7 +21510,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
@@ -21478,7 +21530,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
@@ -21498,7 +21550,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
@@ -21518,7 +21570,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
@@ -21538,7 +21590,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
@@ -21558,7 +21610,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
@@ -21578,7 +21630,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
@@ -21598,7 +21650,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
@@ -21618,7 +21670,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
@@ -21638,7 +21690,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
@@ -21658,7 +21710,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
@@ -21678,7 +21730,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
@@ -21698,7 +21750,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
@@ -21718,7 +21770,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
@@ -21738,7 +21790,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
@@ -21758,7 +21810,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
@@ -21778,7 +21830,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -21798,7 +21850,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -21818,7 +21870,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -21838,7 +21890,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -21858,7 +21910,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -21878,7 +21930,7 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -21898,7 +21950,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -21918,7 +21970,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -21938,7 +21990,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -21958,7 +22010,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -21978,7 +22030,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -21998,7 +22050,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -22018,7 +22070,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -22038,7 +22090,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -22058,7 +22110,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -22078,7 +22130,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -22098,7 +22150,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -22118,7 +22170,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -22138,7 +22190,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -22158,7 +22210,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -22178,7 +22230,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -22198,7 +22250,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -22218,7 +22270,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -22238,7 +22290,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -22258,7 +22310,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -22278,7 +22330,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -22298,7 +22350,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -22318,7 +22370,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -22338,7 +22390,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -22358,7 +22410,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -22378,7 +22430,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -22398,7 +22450,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -22418,7 +22470,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -22438,7 +22490,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -22458,7 +22510,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -22478,7 +22530,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -22498,7 +22550,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -22518,7 +22570,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -22538,7 +22590,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -22558,7 +22610,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -22578,7 +22630,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
@@ -22598,7 +22650,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -22618,7 +22670,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22638,7 +22690,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22658,7 +22710,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22678,7 +22730,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22698,7 +22750,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22718,7 +22770,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22738,7 +22790,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22758,7 +22810,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22778,7 +22830,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -22798,7 +22850,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -22818,7 +22870,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -22838,7 +22890,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -22858,7 +22910,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -22878,7 +22930,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -22898,7 +22950,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -22918,7 +22970,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -22938,7 +22990,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -22958,7 +23010,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -22978,7 +23030,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -22998,7 +23050,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
@@ -23018,7 +23070,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
@@ -23038,7 +23090,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
@@ -23058,7 +23110,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
@@ -23078,7 +23130,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -23098,7 +23150,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -23118,7 +23170,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -23138,7 +23190,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -23158,7 +23210,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23178,7 +23230,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -23198,7 +23250,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -23218,7 +23270,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -23238,7 +23290,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -23258,7 +23310,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -23278,7 +23330,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -23298,7 +23350,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -23318,7 +23370,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -23338,7 +23390,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -23358,7 +23410,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -23378,7 +23430,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
@@ -23398,7 +23450,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
@@ -23418,7 +23470,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
@@ -23438,7 +23490,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
@@ -23458,7 +23510,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
@@ -23478,7 +23530,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
@@ -23498,7 +23550,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
@@ -23518,7 +23570,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
@@ -23538,7 +23590,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
@@ -23558,7 +23610,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
@@ -23578,7 +23630,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
@@ -23598,7 +23650,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
@@ -23618,7 +23670,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
@@ -23638,7 +23690,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
@@ -23658,7 +23710,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
@@ -23678,7 +23730,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
@@ -23698,7 +23750,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
@@ -23718,7 +23770,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -23738,7 +23790,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -23758,7 +23810,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -23778,7 +23830,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -23798,7 +23850,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
@@ -23818,7 +23870,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
@@ -23838,7 +23890,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
@@ -23858,7 +23910,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
@@ -23878,7 +23930,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
@@ -23898,7 +23950,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
@@ -23918,7 +23970,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
@@ -23938,7 +23990,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
@@ -23958,7 +24010,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
@@ -23978,7 +24030,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
@@ -23998,7 +24050,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
@@ -24018,7 +24070,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
@@ -24038,7 +24090,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
@@ -24058,7 +24110,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
@@ -24078,7 +24130,7 @@
         <v>4159</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
@@ -24098,7 +24150,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
@@ -24118,7 +24170,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
@@ -24138,7 +24190,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
@@ -24158,7 +24210,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
@@ -24178,7 +24230,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
@@ -24198,7 +24250,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
@@ -24218,7 +24270,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
@@ -24238,7 +24290,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
@@ -24258,7 +24310,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
@@ -24278,7 +24330,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
@@ -24298,7 +24350,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
@@ -24318,7 +24370,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
@@ -24338,7 +24390,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
@@ -24358,7 +24410,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
@@ -24378,7 +24430,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
@@ -24398,7 +24450,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
@@ -24418,7 +24470,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
@@ -24438,7 +24490,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
@@ -24458,7 +24510,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
@@ -24478,7 +24530,7 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
@@ -24498,7 +24550,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
@@ -24518,7 +24570,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
@@ -24538,7 +24590,7 @@
         <v>4177</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
@@ -24558,7 +24610,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
@@ -24578,7 +24630,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
@@ -24598,7 +24650,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
@@ -24618,7 +24670,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
@@ -24638,7 +24690,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
@@ -24658,7 +24710,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
@@ -24678,7 +24730,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
@@ -24698,7 +24750,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
@@ -24718,7 +24770,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
@@ -24738,7 +24790,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
@@ -24758,7 +24810,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
@@ -24778,7 +24830,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
@@ -24798,7 +24850,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
@@ -24818,7 +24870,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
@@ -24838,7 +24890,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
@@ -24858,7 +24910,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
@@ -24878,7 +24930,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
@@ -24898,7 +24950,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
@@ -24918,7 +24970,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
@@ -24938,7 +24990,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
@@ -24958,7 +25010,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
@@ -24978,7 +25030,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
@@ -24998,7 +25050,7 @@
         <v>4193</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
@@ -25018,7 +25070,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
@@ -25038,7 +25090,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
@@ -25058,7 +25110,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
@@ -25078,7 +25130,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
@@ -25098,7 +25150,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
@@ -25118,7 +25170,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
@@ -25138,7 +25190,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
@@ -25158,7 +25210,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
@@ -25178,7 +25230,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
@@ -25198,7 +25250,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
@@ -25218,7 +25270,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
@@ -25238,7 +25290,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
@@ -25258,7 +25310,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
@@ -25278,7 +25330,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
@@ -25298,7 +25350,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
@@ -25318,7 +25370,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
@@ -25338,7 +25390,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
@@ -25358,7 +25410,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
@@ -25378,7 +25430,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
@@ -25398,7 +25450,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
@@ -25418,7 +25470,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
@@ -25438,7 +25490,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
@@ -25458,7 +25510,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
@@ -25478,7 +25530,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
@@ -25498,7 +25550,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
@@ -25518,7 +25570,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
@@ -25538,7 +25590,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
@@ -25558,7 +25610,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
@@ -25578,7 +25630,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
@@ -25598,7 +25650,7 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
@@ -25618,7 +25670,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -25638,7 +25690,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -25658,7 +25710,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -25678,7 +25730,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -25698,7 +25750,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
@@ -25718,7 +25770,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
@@ -25738,7 +25790,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
@@ -25758,7 +25810,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
@@ -25778,7 +25830,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -25798,7 +25850,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -25818,7 +25870,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -25838,7 +25890,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -25858,7 +25910,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -25878,7 +25930,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
@@ -25898,7 +25950,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
@@ -25918,7 +25970,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
@@ -25938,7 +25990,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
@@ -25958,7 +26010,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
@@ -25978,7 +26030,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -25998,7 +26050,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -26018,7 +26070,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -26038,7 +26090,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -26058,7 +26110,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -26078,7 +26130,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -26098,7 +26150,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
@@ -26118,7 +26170,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
@@ -26138,7 +26190,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
@@ -26158,7 +26210,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
@@ -26178,7 +26230,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
@@ -26198,7 +26250,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
@@ -26218,7 +26270,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
@@ -26238,7 +26290,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
@@ -26258,7 +26310,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
@@ -26278,7 +26330,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
@@ -26298,7 +26350,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
@@ -26318,7 +26370,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
@@ -26338,7 +26390,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
@@ -26358,7 +26410,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
@@ -26378,7 +26430,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
@@ -26398,7 +26450,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
@@ -26418,7 +26470,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
@@ -26438,7 +26490,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
@@ -26458,7 +26510,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
@@ -26478,7 +26530,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
@@ -26498,7 +26550,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
@@ -26518,7 +26570,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
@@ -26538,7 +26590,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
@@ -26558,7 +26610,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
@@ -26578,7 +26630,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
@@ -26598,7 +26650,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
@@ -26618,7 +26670,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
@@ -26638,7 +26690,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
@@ -26658,7 +26710,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
@@ -26678,7 +26730,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
@@ -26698,7 +26750,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
@@ -26718,7 +26770,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
@@ -26738,7 +26790,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
@@ -26758,7 +26810,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
@@ -26778,7 +26830,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
@@ -26798,7 +26850,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
@@ -26818,7 +26870,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
@@ -26838,7 +26890,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
@@ -26858,7 +26910,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
@@ -26878,7 +26930,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
@@ -26898,7 +26950,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
@@ -26918,7 +26970,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
@@ -26938,7 +26990,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
@@ -26958,7 +27010,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
@@ -26978,7 +27030,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
@@ -26998,7 +27050,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
@@ -27018,7 +27070,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
@@ -27038,7 +27090,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
@@ -27058,7 +27110,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
@@ -27078,7 +27130,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
@@ -27098,7 +27150,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
@@ -27118,7 +27170,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
@@ -27138,7 +27190,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
@@ -27158,7 +27210,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
@@ -27178,7 +27230,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
@@ -27198,7 +27250,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
@@ -27218,7 +27270,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
@@ -27238,7 +27290,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
@@ -27258,7 +27310,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
@@ -27278,7 +27330,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
@@ -27298,7 +27350,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
@@ -27318,7 +27370,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
@@ -27338,7 +27390,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
@@ -27358,7 +27410,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
@@ -27378,7 +27430,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
@@ -27398,7 +27450,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
@@ -27418,7 +27470,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
@@ -27438,7 +27490,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
@@ -27458,7 +27510,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
@@ -27478,7 +27530,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
@@ -27498,7 +27550,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
@@ -27518,7 +27570,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
@@ -27538,7 +27590,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
@@ -27558,7 +27610,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
@@ -27578,7 +27630,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
@@ -27598,7 +27650,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
@@ -27618,7 +27670,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
@@ -27638,7 +27690,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
@@ -27658,7 +27710,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
@@ -27678,7 +27730,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>695</v>
       </c>
@@ -27698,7 +27750,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>696</v>
       </c>
@@ -27718,7 +27770,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>697</v>
       </c>
@@ -27738,7 +27790,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>698</v>
       </c>
@@ -27758,7 +27810,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>699</v>
       </c>
@@ -27778,7 +27830,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>700</v>
       </c>
@@ -27798,7 +27850,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>701</v>
       </c>
@@ -27818,7 +27870,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>702</v>
       </c>
@@ -27838,7 +27890,7 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>703</v>
       </c>
@@ -27858,7 +27910,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>704</v>
       </c>
@@ -27878,7 +27930,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>705</v>
       </c>
@@ -27898,7 +27950,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>706</v>
       </c>
@@ -27918,7 +27970,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>707</v>
       </c>
@@ -27938,7 +27990,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>708</v>
       </c>
@@ -27958,7 +28010,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>709</v>
       </c>
@@ -27978,7 +28030,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>710</v>
       </c>
@@ -27998,7 +28050,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>711</v>
       </c>
@@ -28018,7 +28070,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>712</v>
       </c>
@@ -28038,7 +28090,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>713</v>
       </c>
@@ -28058,7 +28110,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>714</v>
       </c>
@@ -28078,7 +28130,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>715</v>
       </c>
@@ -28098,7 +28150,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>716</v>
       </c>
@@ -28118,7 +28170,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>717</v>
       </c>
@@ -28138,7 +28190,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>718</v>
       </c>
@@ -28158,7 +28210,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>719</v>
       </c>
@@ -28178,7 +28230,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>720</v>
       </c>
@@ -28198,7 +28250,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>721</v>
       </c>
@@ -28218,7 +28270,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>722</v>
       </c>
@@ -28238,7 +28290,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>723</v>
       </c>
@@ -28258,7 +28310,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>724</v>
       </c>
@@ -28278,7 +28330,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>725</v>
       </c>
@@ -28298,7 +28350,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>726</v>
       </c>
@@ -28318,7 +28370,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>727</v>
       </c>
@@ -28338,7 +28390,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>728</v>
       </c>
@@ -28358,7 +28410,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>729</v>
       </c>
@@ -28378,7 +28430,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>730</v>
       </c>
@@ -28398,7 +28450,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>731</v>
       </c>
@@ -28418,7 +28470,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>732</v>
       </c>
@@ -28438,7 +28490,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>733</v>
       </c>
@@ -28458,7 +28510,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>734</v>
       </c>
@@ -28478,7 +28530,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>735</v>
       </c>
@@ -28498,7 +28550,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>736</v>
       </c>
@@ -28518,7 +28570,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>737</v>
       </c>
@@ -28538,7 +28590,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>738</v>
       </c>
@@ -28558,7 +28610,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>739</v>
       </c>
@@ -28578,7 +28630,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>740</v>
       </c>
@@ -28598,7 +28650,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>741</v>
       </c>
@@ -28618,7 +28670,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>742</v>
       </c>
@@ -28638,7 +28690,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>743</v>
       </c>
@@ -28658,7 +28710,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>744</v>
       </c>
@@ -28678,7 +28730,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>745</v>
       </c>
@@ -28698,7 +28750,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>746</v>
       </c>
@@ -28718,7 +28770,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>747</v>
       </c>
@@ -28738,7 +28790,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>748</v>
       </c>
@@ -28758,7 +28810,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>749</v>
       </c>
@@ -28778,7 +28830,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>750</v>
       </c>
@@ -28798,7 +28850,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>751</v>
       </c>
@@ -28818,7 +28870,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>752</v>
       </c>
@@ -28838,7 +28890,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>753</v>
       </c>
@@ -28858,7 +28910,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>754</v>
       </c>
@@ -28878,7 +28930,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>755</v>
       </c>
@@ -28898,7 +28950,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>756</v>
       </c>
@@ -28918,7 +28970,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>757</v>
       </c>
@@ -28938,7 +28990,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>758</v>
       </c>
@@ -28958,7 +29010,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>759</v>
       </c>
@@ -28978,7 +29030,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>760</v>
       </c>
@@ -28998,7 +29050,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>761</v>
       </c>
@@ -29018,7 +29070,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>762</v>
       </c>
@@ -29038,7 +29090,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>763</v>
       </c>
@@ -29058,7 +29110,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>764</v>
       </c>
@@ -29078,7 +29130,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>765</v>
       </c>
@@ -29098,7 +29150,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>766</v>
       </c>
@@ -29118,7 +29170,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>767</v>
       </c>
@@ -29138,7 +29190,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>768</v>
       </c>
@@ -29158,7 +29210,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>769</v>
       </c>
@@ -29178,7 +29230,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>770</v>
       </c>
@@ -29198,7 +29250,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>771</v>
       </c>
@@ -29218,7 +29270,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>772</v>
       </c>
@@ -29238,7 +29290,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>773</v>
       </c>
@@ -29258,7 +29310,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>774</v>
       </c>
@@ -29278,7 +29330,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>775</v>
       </c>
@@ -29298,7 +29350,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>776</v>
       </c>
@@ -29318,7 +29370,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>777</v>
       </c>
@@ -29338,7 +29390,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>778</v>
       </c>
@@ -29358,7 +29410,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>779</v>
       </c>
@@ -29378,7 +29430,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>780</v>
       </c>
@@ -29398,7 +29450,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>781</v>
       </c>
@@ -29418,7 +29470,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>782</v>
       </c>
@@ -29438,7 +29490,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>783</v>
       </c>
@@ -29458,7 +29510,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>784</v>
       </c>
@@ -29478,7 +29530,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>785</v>
       </c>
@@ -29498,7 +29550,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>786</v>
       </c>
@@ -29518,7 +29570,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>787</v>
       </c>
@@ -29538,7 +29590,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>788</v>
       </c>
@@ -29558,7 +29610,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>789</v>
       </c>
@@ -29578,7 +29630,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>790</v>
       </c>
@@ -29598,7 +29650,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>791</v>
       </c>
@@ -29618,7 +29670,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>792</v>
       </c>
@@ -29638,7 +29690,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>793</v>
       </c>
@@ -29658,7 +29710,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>794</v>
       </c>
@@ -29678,7 +29730,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>795</v>
       </c>
@@ -29698,7 +29750,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>796</v>
       </c>
@@ -29718,7 +29770,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>797</v>
       </c>
@@ -29738,7 +29790,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>798</v>
       </c>
@@ -29758,7 +29810,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>799</v>
       </c>
@@ -29778,7 +29830,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>800</v>
       </c>
@@ -29798,7 +29850,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>801</v>
       </c>
@@ -29818,7 +29870,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>802</v>
       </c>
@@ -29838,7 +29890,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>803</v>
       </c>
@@ -29858,7 +29910,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>804</v>
       </c>
@@ -29878,7 +29930,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>805</v>
       </c>
@@ -29898,7 +29950,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>806</v>
       </c>
@@ -29918,7 +29970,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>807</v>
       </c>
@@ -29938,7 +29990,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>808</v>
       </c>
@@ -29958,7 +30010,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>809</v>
       </c>
@@ -29978,7 +30030,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>810</v>
       </c>
@@ -29998,7 +30050,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>811</v>
       </c>
@@ -30018,7 +30070,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>812</v>
       </c>
@@ -30038,7 +30090,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>813</v>
       </c>
@@ -30058,7 +30110,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>814</v>
       </c>
@@ -30078,7 +30130,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>815</v>
       </c>
@@ -30098,7 +30150,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>816</v>
       </c>
@@ -30118,7 +30170,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>817</v>
       </c>
@@ -30138,7 +30190,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>818</v>
       </c>
@@ -30158,7 +30210,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>819</v>
       </c>
@@ -30178,7 +30230,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>820</v>
       </c>
@@ -30198,7 +30250,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>821</v>
       </c>
@@ -30218,7 +30270,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>822</v>
       </c>
@@ -30238,7 +30290,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="824" spans="1:6">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>823</v>
       </c>
@@ -30258,7 +30310,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="825" spans="1:6">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>824</v>
       </c>
@@ -30278,7 +30330,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="826" spans="1:6">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>825</v>
       </c>
@@ -30298,7 +30350,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="827" spans="1:6">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>826</v>
       </c>
@@ -30318,7 +30370,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="828" spans="1:6">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>827</v>
       </c>
@@ -30338,7 +30390,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="829" spans="1:6">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>828</v>
       </c>
@@ -30358,7 +30410,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>829</v>
       </c>
@@ -30378,7 +30430,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="831" spans="1:6">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>830</v>
       </c>
@@ -30398,7 +30450,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="832" spans="1:6">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>831</v>
       </c>
@@ -30418,7 +30470,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>832</v>
       </c>
@@ -30438,7 +30490,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="834" spans="1:6">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>833</v>
       </c>
@@ -30458,7 +30510,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="835" spans="1:6">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>834</v>
       </c>
@@ -30478,7 +30530,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="836" spans="1:6">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>835</v>
       </c>
@@ -30498,7 +30550,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="837" spans="1:6">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>836</v>
       </c>
@@ -30518,7 +30570,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="838" spans="1:6">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>837</v>
       </c>
@@ -30538,7 +30590,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="839" spans="1:6">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>838</v>
       </c>
@@ -30558,7 +30610,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="840" spans="1:6">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>839</v>
       </c>
@@ -30578,7 +30630,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="841" spans="1:6">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>840</v>
       </c>
@@ -30598,7 +30650,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="842" spans="1:6">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>841</v>
       </c>
@@ -30618,7 +30670,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="843" spans="1:6">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>842</v>
       </c>
@@ -30638,7 +30690,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>843</v>
       </c>
@@ -30658,7 +30710,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="845" spans="1:6">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>844</v>
       </c>
@@ -30678,7 +30730,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>845</v>
       </c>
@@ -30698,7 +30750,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>846</v>
       </c>
@@ -30718,7 +30770,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="848" spans="1:6">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>847</v>
       </c>
@@ -30738,7 +30790,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>848</v>
       </c>
@@ -30758,7 +30810,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="850" spans="1:6">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>849</v>
       </c>
@@ -30778,7 +30830,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="851" spans="1:6">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>850</v>
       </c>
@@ -30798,7 +30850,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="852" spans="1:6">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>851</v>
       </c>
@@ -30818,7 +30870,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="853" spans="1:6">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>852</v>
       </c>
@@ -30838,7 +30890,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>853</v>
       </c>
@@ -30858,7 +30910,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="855" spans="1:6">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>854</v>
       </c>
@@ -30878,7 +30930,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="856" spans="1:6">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>855</v>
       </c>
@@ -30898,7 +30950,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="857" spans="1:6">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>856</v>
       </c>
@@ -30918,7 +30970,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="858" spans="1:6">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>857</v>
       </c>
@@ -30938,7 +30990,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>858</v>
       </c>
@@ -30958,7 +31010,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>859</v>
       </c>
@@ -30978,7 +31030,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="861" spans="1:6">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>860</v>
       </c>
@@ -30998,7 +31050,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="862" spans="1:6">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>861</v>
       </c>
@@ -31018,7 +31070,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="863" spans="1:6">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>862</v>
       </c>
@@ -31038,7 +31090,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="864" spans="1:6">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>863</v>
       </c>
@@ -31058,7 +31110,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>864</v>
       </c>
@@ -31078,7 +31130,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="866" spans="1:6">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>865</v>
       </c>
@@ -31098,7 +31150,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="867" spans="1:6">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>866</v>
       </c>
@@ -31118,7 +31170,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="868" spans="1:6">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>867</v>
       </c>
@@ -31138,7 +31190,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="869" spans="1:6">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>868</v>
       </c>
@@ -31158,7 +31210,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>869</v>
       </c>
@@ -31178,7 +31230,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="871" spans="1:6">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>870</v>
       </c>
@@ -31198,7 +31250,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="872" spans="1:6">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>871</v>
       </c>
@@ -31218,7 +31270,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="873" spans="1:6">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>872</v>
       </c>
@@ -31238,7 +31290,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="874" spans="1:6">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>873</v>
       </c>
@@ -31258,7 +31310,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="875" spans="1:6">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>874</v>
       </c>
@@ -31278,7 +31330,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="876" spans="1:6">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>875</v>
       </c>
@@ -31298,7 +31350,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="877" spans="1:6">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>876</v>
       </c>
@@ -31318,7 +31370,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>877</v>
       </c>
@@ -31338,7 +31390,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="879" spans="1:6">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>878</v>
       </c>
@@ -31358,7 +31410,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="880" spans="1:6">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>879</v>
       </c>
@@ -31378,7 +31430,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>880</v>
       </c>
@@ -31398,7 +31450,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>881</v>
       </c>
@@ -31418,7 +31470,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>882</v>
       </c>
@@ -31438,7 +31490,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>883</v>
       </c>
@@ -31458,7 +31510,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>884</v>
       </c>
@@ -31478,7 +31530,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>885</v>
       </c>
@@ -31498,7 +31550,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>886</v>
       </c>
@@ -31518,7 +31570,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>887</v>
       </c>
@@ -31538,7 +31590,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>888</v>
       </c>
@@ -31558,7 +31610,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>889</v>
       </c>
@@ -31578,7 +31630,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>890</v>
       </c>
@@ -31598,7 +31650,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>891</v>
       </c>
@@ -31618,7 +31670,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>892</v>
       </c>
@@ -31638,7 +31690,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>893</v>
       </c>
@@ -31658,7 +31710,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>894</v>
       </c>
@@ -31678,7 +31730,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>895</v>
       </c>
@@ -31698,7 +31750,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>896</v>
       </c>
@@ -31718,7 +31770,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="898" spans="1:6">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>897</v>
       </c>
@@ -31738,7 +31790,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>898</v>
       </c>
@@ -31758,7 +31810,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>899</v>
       </c>
@@ -31778,7 +31830,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>900</v>
       </c>
@@ -31798,7 +31850,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>901</v>
       </c>
@@ -31818,7 +31870,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>902</v>
       </c>
@@ -31838,7 +31890,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>903</v>
       </c>
@@ -31858,7 +31910,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="905" spans="1:6">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>904</v>
       </c>
@@ -31878,7 +31930,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>905</v>
       </c>
@@ -31898,7 +31950,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>906</v>
       </c>
@@ -31918,7 +31970,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>907</v>
       </c>
@@ -31938,7 +31990,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>908</v>
       </c>
@@ -31958,7 +32010,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>909</v>
       </c>
@@ -31978,7 +32030,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>910</v>
       </c>
@@ -31998,7 +32050,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="912" spans="1:6">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>911</v>
       </c>
@@ -32018,7 +32070,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>912</v>
       </c>
@@ -32038,7 +32090,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>913</v>
       </c>
@@ -32058,7 +32110,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>914</v>
       </c>
@@ -32078,7 +32130,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>915</v>
       </c>
@@ -32098,7 +32150,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>916</v>
       </c>
@@ -32118,7 +32170,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>917</v>
       </c>
@@ -32138,7 +32190,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>918</v>
       </c>
@@ -32158,7 +32210,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>919</v>
       </c>
@@ -32178,7 +32230,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>920</v>
       </c>
@@ -32198,7 +32250,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>921</v>
       </c>
@@ -32218,7 +32270,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>922</v>
       </c>
@@ -32238,7 +32290,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>923</v>
       </c>
@@ -32258,7 +32310,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>924</v>
       </c>
@@ -32278,7 +32330,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>925</v>
       </c>
@@ -32298,7 +32350,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>926</v>
       </c>
@@ -32318,7 +32370,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>927</v>
       </c>
@@ -32338,7 +32390,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>928</v>
       </c>
@@ -32358,7 +32410,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>929</v>
       </c>
@@ -32378,7 +32430,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>930</v>
       </c>
@@ -32398,7 +32450,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>931</v>
       </c>
@@ -32418,7 +32470,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="933" spans="1:6">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>932</v>
       </c>
@@ -32438,7 +32490,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>933</v>
       </c>
@@ -32458,7 +32510,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>934</v>
       </c>
@@ -32478,7 +32530,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>935</v>
       </c>
@@ -32498,7 +32550,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>936</v>
       </c>
@@ -32518,7 +32570,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>937</v>
       </c>
@@ -32538,7 +32590,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>938</v>
       </c>
@@ -32558,7 +32610,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="940" spans="1:6">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>939</v>
       </c>
@@ -32578,7 +32630,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="941" spans="1:6">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>940</v>
       </c>
@@ -32598,7 +32650,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="942" spans="1:6">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>941</v>
       </c>
@@ -32618,7 +32670,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="943" spans="1:6">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>942</v>
       </c>
@@ -32638,7 +32690,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="944" spans="1:6">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>943</v>
       </c>
@@ -32658,7 +32710,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="945" spans="1:6">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>944</v>
       </c>
@@ -32678,7 +32730,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="946" spans="1:6">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>945</v>
       </c>
@@ -32698,7 +32750,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="947" spans="1:6">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>946</v>
       </c>
@@ -32718,7 +32770,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="948" spans="1:6">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>947</v>
       </c>
@@ -32738,7 +32790,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="949" spans="1:6">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>948</v>
       </c>
@@ -32758,7 +32810,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="950" spans="1:6">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>949</v>
       </c>
@@ -32778,7 +32830,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="951" spans="1:6">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>950</v>
       </c>
@@ -32798,7 +32850,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="952" spans="1:6">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>951</v>
       </c>
@@ -32818,7 +32870,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="953" spans="1:6">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>952</v>
       </c>
@@ -32838,7 +32890,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="954" spans="1:6">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>953</v>
       </c>
@@ -32858,7 +32910,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="955" spans="1:6">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>954</v>
       </c>
@@ -32878,7 +32930,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="956" spans="1:6">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>955</v>
       </c>
@@ -32898,7 +32950,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="957" spans="1:6">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>956</v>
       </c>
@@ -32918,7 +32970,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="958" spans="1:6">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>957</v>
       </c>
@@ -32938,7 +32990,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="959" spans="1:6">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>958</v>
       </c>
@@ -32958,7 +33010,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="960" spans="1:6">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>959</v>
       </c>
@@ -32978,7 +33030,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="961" spans="1:6">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>960</v>
       </c>
@@ -32998,7 +33050,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="962" spans="1:6">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>961</v>
       </c>
@@ -33018,7 +33070,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="963" spans="1:6">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>962</v>
       </c>
@@ -33038,7 +33090,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="964" spans="1:6">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>963</v>
       </c>
@@ -33058,7 +33110,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="965" spans="1:6">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>964</v>
       </c>
@@ -33078,7 +33130,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="966" spans="1:6">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>965</v>
       </c>
@@ -33098,7 +33150,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="967" spans="1:6">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>966</v>
       </c>
@@ -33118,7 +33170,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="968" spans="1:6">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>967</v>
       </c>
@@ -33138,7 +33190,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="969" spans="1:6">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>968</v>
       </c>
@@ -33158,7 +33210,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="970" spans="1:6">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>969</v>
       </c>
@@ -33178,7 +33230,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="971" spans="1:6">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>970</v>
       </c>
@@ -33198,7 +33250,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="972" spans="1:6">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>971</v>
       </c>
@@ -33218,7 +33270,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="973" spans="1:6">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>972</v>
       </c>
@@ -33238,7 +33290,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="974" spans="1:6">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>973</v>
       </c>
